--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.46.0/accreditamento-checklist_V8.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Dropbox\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40CE7F-C317-4CD9-BB2A-D2ED00C78D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21BEE92-4359-4A5C-9640-806E04316E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="0" windowWidth="14235" windowHeight="13350" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27195" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="892">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4644,18 +4644,6 @@
     <t>L’errore viene segnalato a video all’utente finale, che procederà all'inserimento del dato mancante</t>
   </si>
   <si>
-    <t>2024-05-28T14:46:29Z</t>
-  </si>
-  <si>
-    <t>fc3aa6cadcdbc75f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.c459c96db6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore semantico "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
-  </si>
-  <si>
     <t>L'applicazione non permette di inserire un paziente senza indicare il sesso</t>
   </si>
   <si>
@@ -4711,6 +4699,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.7ed190ce983d8005bc170cd5c7562508ccbe273061c9176e5220efa9968275ca.c718f57369^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -5130,6 +5121,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -5147,16 +5148,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7618,10 +7609,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="Q37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E374" sqref="E374"/>
+      <selection pane="bottomRight" activeCell="P185" sqref="P185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7659,12 +7650,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7682,14 +7673,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="46" t="s">
         <v>849</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="38"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7707,12 +7698,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="46" t="s">
         <v>850</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7731,12 +7722,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
         <v>851</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="38"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7754,8 +7745,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -13930,36 +13921,22 @@
       <c r="E185" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="F185" s="23">
-        <v>45440</v>
-      </c>
-      <c r="G185" s="24" t="s">
-        <v>872</v>
-      </c>
+      <c r="F185" s="23"/>
+      <c r="G185" s="24"/>
       <c r="H185" s="24" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="I185" s="24" t="s">
-        <v>874</v>
-      </c>
-      <c r="J185" s="25" t="s">
-        <v>139</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="J185" s="25"/>
       <c r="K185" s="25"/>
-      <c r="L185" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="M185" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N185" s="25" t="s">
-        <v>875</v>
-      </c>
-      <c r="O185" s="25" t="s">
-        <v>848</v>
-      </c>
+      <c r="L185" s="25"/>
+      <c r="M185" s="25"/>
+      <c r="N185" s="25"/>
+      <c r="O185" s="25"/>
       <c r="P185" s="25" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="Q185" s="25"/>
       <c r="R185" s="26"/>
@@ -13992,7 +13969,7 @@
         <v>848</v>
       </c>
       <c r="K186" s="25" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="L186" s="25"/>
       <c r="M186" s="25"/>
@@ -14030,7 +14007,7 @@
         <v>848</v>
       </c>
       <c r="K187" s="25" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="L187" s="25"/>
       <c r="M187" s="25"/>
@@ -14068,7 +14045,7 @@
         <v>848</v>
       </c>
       <c r="K188" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L188" s="25"/>
       <c r="M188" s="25"/>
@@ -14106,7 +14083,7 @@
         <v>848</v>
       </c>
       <c r="K189" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L189" s="25"/>
       <c r="M189" s="25"/>
@@ -14144,7 +14121,7 @@
         <v>848</v>
       </c>
       <c r="K190" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L190" s="25"/>
       <c r="M190" s="25"/>
@@ -14178,13 +14155,13 @@
         <v>45440</v>
       </c>
       <c r="G191" s="24" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="H191" s="24" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I191" s="24" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="J191" s="25" t="s">
         <v>139</v>
@@ -14197,7 +14174,7 @@
         <v>139</v>
       </c>
       <c r="N191" s="25" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="O191" s="25" t="s">
         <v>848</v>
@@ -14236,7 +14213,7 @@
         <v>848</v>
       </c>
       <c r="K192" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L192" s="25"/>
       <c r="M192" s="25"/>
@@ -14274,7 +14251,7 @@
         <v>848</v>
       </c>
       <c r="K193" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L193" s="25"/>
       <c r="M193" s="25"/>
@@ -14312,7 +14289,7 @@
         <v>848</v>
       </c>
       <c r="K194" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L194" s="25"/>
       <c r="M194" s="25"/>
@@ -14350,7 +14327,7 @@
         <v>848</v>
       </c>
       <c r="K195" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L195" s="25"/>
       <c r="M195" s="25"/>
@@ -14388,7 +14365,7 @@
         <v>848</v>
       </c>
       <c r="K196" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L196" s="25"/>
       <c r="M196" s="25"/>
@@ -14426,7 +14403,7 @@
         <v>848</v>
       </c>
       <c r="K197" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="L197" s="25"/>
       <c r="M197" s="25"/>
@@ -18302,13 +18279,13 @@
         <v>45439</v>
       </c>
       <c r="G311" s="24" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="H311" s="24" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I311" s="24" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J311" s="25" t="s">
         <v>139</v>
@@ -18482,10 +18459,10 @@
         <v>45439</v>
       </c>
       <c r="G316" s="24" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H316" s="24" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="I316" s="24" t="s">
         <v>858</v>
@@ -18526,10 +18503,10 @@
         <v>45439</v>
       </c>
       <c r="G317" s="24" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="H317" s="24" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="I317" s="24" t="s">
         <v>861</v>
@@ -18570,10 +18547,10 @@
         <v>45440</v>
       </c>
       <c r="G318" s="24" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H318" s="24" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="I318" s="24" t="s">
         <v>864</v>
@@ -20755,14 +20732,14 @@
       <c r="F382" s="23">
         <v>45439</v>
       </c>
-      <c r="G382" s="45" t="s">
-        <v>892</v>
-      </c>
-      <c r="H382" s="46" t="s">
-        <v>893</v>
-      </c>
-      <c r="I382" s="46" t="s">
-        <v>894</v>
+      <c r="G382" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="H382" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="I382" s="34" t="s">
+        <v>890</v>
       </c>
       <c r="J382" s="25" t="s">
         <v>139</v>
@@ -25492,7 +25469,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J36 L10:M36 O10:O36 J38 L38:M38 O38 J40:J44 L40:M44 O40:O44 J46 L46:M46 O46 J48:J52 L48:M52 O48:O52 J54:J198 L54:M198 O54:O198 J375:J383 L375:M383 O375:O383</xm:sqref>
+          <xm:sqref>J10:J36 L10:M36 O10:O36 J38 L38:M38 O38 J40:J44 L40:M44 O40:O44 J46 L46:M46 O46 J48:J52 L48:M52 O48:O52 O375:O383 J186:J198 L186:M198 J375:J383 L375:M383 J54:J184 L54:M184 O54:O198</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
